--- a/Sass.xlsx
+++ b/Sass.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="natour code process" sheetId="1" r:id="rId1"/>
+    <sheet name="principle" sheetId="2" r:id="rId2"/>
+    <sheet name="Sass concept" sheetId="3" r:id="rId3"/>
+    <sheet name="npm command" sheetId="4" r:id="rId4"/>
+    <sheet name="planing" sheetId="5" r:id="rId5"/>
+    <sheet name="RWD" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="394">
   <si>
     <t>Natours project</t>
   </si>
@@ -1492,6 +1495,1588 @@
         <family val="3"/>
       </rPr>
       <t>:0;</t>
+    </r>
+  </si>
+  <si>
+    <t>1. responsive design</t>
+  </si>
+  <si>
+    <t>2. maintain and scable code</t>
+  </si>
+  <si>
+    <t>3. web performance</t>
+  </si>
+  <si>
+    <t>- fuild layout</t>
+  </si>
+  <si>
+    <t>- media quries</t>
+  </si>
+  <si>
+    <t>- responsive image</t>
+  </si>
+  <si>
+    <t>- correct units</t>
+  </si>
+  <si>
+    <t>- destop first vs mobile first</t>
+  </si>
+  <si>
+    <t>- how to organize files</t>
+  </si>
+  <si>
+    <t>- how to name class</t>
+  </si>
+  <si>
+    <t>- how to structure HTML</t>
+  </si>
+  <si>
+    <t>- less http request</t>
+  </si>
+  <si>
+    <t>- less code</t>
+  </si>
+  <si>
+    <t>- compress code</t>
+  </si>
+  <si>
+    <t>- use css preprocessor</t>
+  </si>
+  <si>
+    <t>- Less image</t>
+  </si>
+  <si>
+    <t>- compress images</t>
+  </si>
+  <si>
+    <t>1. Variable: for reuseable such as colors, font-sizes, spacing...</t>
+  </si>
+  <si>
+    <t>2. Nesting: to nest selectors inside of one another, allowing us to write less code</t>
+  </si>
+  <si>
+    <t>3. Operators: for mathematical operations right inside of CSS</t>
+  </si>
+  <si>
+    <t>4. Partials and imports: to write CSS in different files ad importing them all into one signle file</t>
+  </si>
+  <si>
+    <t>5. Mixins: to write reusable pieces of CSS code;</t>
+  </si>
+  <si>
+    <t>6. Functions: similar to mixins, with the difference that they produce a value that can hhan be used</t>
+  </si>
+  <si>
+    <t>7. Extends: to make different selectors inherit declarations that are common to all of them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Control directive: for writing complex code using conditionals and loops </t>
+  </si>
+  <si>
+    <t>Web design principal</t>
+  </si>
+  <si>
+    <t>1. Use a font size between 15 and 25 px</t>
+  </si>
+  <si>
+    <t>2. Use big font size for headlines (90px,60px , 32px)</t>
+  </si>
+  <si>
+    <t>3. line spacing: 120 and 150%</t>
+  </si>
+  <si>
+    <t>4. 45 ~ 90 characters per line</t>
+  </si>
+  <si>
+    <t>5. use good fonts: open sans, lato, raleway, monsterrat, pt sans</t>
+  </si>
+  <si>
+    <t>Typo</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>1. use only one base color</t>
+  </si>
+  <si>
+    <t>2. use a tool if you want to use more color: color wheel tool</t>
+  </si>
+  <si>
+    <t>3. use color to draw attention</t>
+  </si>
+  <si>
+    <t>4. never use black in your design</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>1. use icons to list features/steps</t>
+  </si>
+  <si>
+    <t>2. use icons for actions and links</t>
+  </si>
+  <si>
+    <t>4. use icon fonts whenever possible</t>
+  </si>
+  <si>
+    <t>Spacing and layout</t>
+  </si>
+  <si>
+    <t>1. Use whitespace</t>
+  </si>
+  <si>
+    <t>+ put whitespace between your elements</t>
+  </si>
+  <si>
+    <t>+ put whitespace between your groups of elements</t>
+  </si>
+  <si>
+    <t>+ put whitespace between your website's section</t>
+  </si>
+  <si>
+    <t>+ but don't exaggerate</t>
+  </si>
+  <si>
+    <t>Working with Images</t>
+  </si>
+  <si>
+    <t>1. Put text directly on the image</t>
+  </si>
+  <si>
+    <t>2. Overlay the image</t>
+  </si>
+  <si>
+    <t>3. Put your text in a box</t>
+  </si>
+  <si>
+    <t>4. Blur the image</t>
+  </si>
+  <si>
+    <t>5. The floor fade</t>
+  </si>
+  <si>
+    <t>&lt;nav class="clearfix"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ul class="navigation"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;li&gt;&lt;a href="#"&gt;About us&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;li&gt;&lt;a href="#"&gt;Pricing&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;li&gt;&lt;a href="#"&gt;Contact&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;div class="button"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;a href="#" class="btn-main"&gt;Sign up&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;a href="#" class="btn-hot"&gt;Get a quote&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/nav&gt;</t>
+  </si>
+  <si>
+    <t>SCSS</t>
+  </si>
+  <si>
+    <t>*{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  margin:0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  padding:0;</t>
+  </si>
+  <si>
+    <t>$color-primary:#f9ed69;//yellow color</t>
+  </si>
+  <si>
+    <t>$color-secondary:#f08a5d; // orange;</t>
+  </si>
+  <si>
+    <t>$color-tertiary:#b83b5e; // pink</t>
+  </si>
+  <si>
+    <t>$color-text-dark:black;</t>
+  </si>
+  <si>
+    <t>$color-text-ligth:#eee;</t>
+  </si>
+  <si>
+    <t>$width-button:150px;</t>
+  </si>
+  <si>
+    <t>nav{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  margin:30px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  background-color:$color-primary;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp;::after{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    content:"";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    clear:both;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    display:table;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t>.navigation{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  list-style:none;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  float:left;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  li{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    display:inline-block;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    margin-left:30px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &amp;:first-child{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      margin:0;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    a:link{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      text-decoration:none;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      text-transform:uppercase;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      color:$color-text-dark;</t>
+  </si>
+  <si>
+    <t>.button{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  float:right;</t>
+  </si>
+  <si>
+    <t>.btn-main:link,</t>
+  </si>
+  <si>
+    <t>.btn-hot:link{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  padding:10px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  display:inline-block;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  text-align:center;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  border-radius:100px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  text-decoration:none;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  text-transform:uppercase;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  width:$width-button;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  color:$color-text-ligth;</t>
+  </si>
+  <si>
+    <t>.btn-main{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp;:link{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    background-color:$color-secondary;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp;:hover{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    background-color:darken($color-secondary,15%);</t>
+  </si>
+  <si>
+    <t>.btn-hot{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    background-color:$color-tertiary;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    background-color:lighten($color-tertiary,15%);</t>
+  </si>
+  <si>
+    <t>1. Practice</t>
+  </si>
+  <si>
+    <t>2. mixin trong scss</t>
+  </si>
+  <si>
+    <t>@mixin clearfix{
+    content:"";
+    display:table;
+   clear:both;
+}</t>
+  </si>
+  <si>
+    <t>+ sử dụng mixin</t>
+  </si>
+  <si>
+    <t>+ tạo mixin</t>
+  </si>
+  <si>
+    <t>@include clearfix;</t>
+  </si>
+  <si>
+    <t>+ mixin with argument</t>
+  </si>
+  <si>
+    <t>@mixin style-link-text($col){
+color:$col;
+}</t>
+  </si>
+  <si>
+    <t>+ sử dụng mixin with argument</t>
+  </si>
+  <si>
+    <t>style-link-text(#eee);</t>
+  </si>
+  <si>
+    <t>3. function in scss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @function divide($a, $b){
+   @return $a/$b;
+}</t>
+  </si>
+  <si>
+    <t>+ áp dụng function: font-size: divide(60,2) * 1px; //30px</t>
+  </si>
+  <si>
+    <t>4. extend in scss</t>
+  </si>
+  <si>
+    <t>%btn-placeholder{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @include style-link-text($color-text-ligth);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sử dụng btn-placeholder</t>
+  </si>
+  <si>
+    <t>@extend %btn-placeholder;</t>
+  </si>
+  <si>
+    <t>full code with @mixin @function @extend</t>
+  </si>
+  <si>
+    <t>@mixin clearfix{</t>
+  </si>
+  <si>
+    <t>@mixin style-link-text($col){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  color:$col;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @include clearfix;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      @include style-link-text($color-text-dark);</t>
+  </si>
+  <si>
+    <t>// .btn-main:link,</t>
+  </si>
+  <si>
+    <t>// .btn-hot:link{</t>
+  </si>
+  <si>
+    <t>// }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @extend %btn-placeholder;</t>
+  </si>
+  <si>
+    <t>npm init</t>
+  </si>
+  <si>
+    <t>npm install node-sass --save-dev</t>
+  </si>
+  <si>
+    <t>npm install jquery --save // luu vao dependencies o package.json</t>
+  </si>
+  <si>
+    <t>npm uninstall jquery --save</t>
+  </si>
+  <si>
+    <t>3. cách sử dụng sass</t>
+  </si>
+  <si>
+    <t>+ trong file package.json sửa đoạn script thành như sau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"compile:sass" : "node-sass sass/main.scss css/style.css" </t>
+  </si>
+  <si>
+    <t>+ chay terminal sau</t>
+  </si>
+  <si>
+    <t>npm run compile:sass</t>
+  </si>
+  <si>
+    <r>
+      <t>padding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;;</t>
+    </r>
+  </si>
+  <si>
+    <t>// install live server</t>
+  </si>
+  <si>
+    <t>npm install live-server -g</t>
+  </si>
+  <si>
+    <t>4. convert css code to sass</t>
+  </si>
+  <si>
+    <t>&amp;__logo-box{</t>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:absolute;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:4rem;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:4rem;</t>
+    </r>
+  </si>
+  <si>
+    <t>.header__logo-box = &amp;__logo-box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kế hoạch </t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Sass</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>JWT</t>
+  </si>
+  <si>
+    <t>ReactJS</t>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>small project with sass</t>
+  </si>
+  <si>
+    <t>small project with bootstrap</t>
+  </si>
+  <si>
+    <t>small project with angular</t>
+  </si>
+  <si>
+    <t>small project with JWT</t>
+  </si>
+  <si>
+    <t>small project with reactJS</t>
+  </si>
+  <si>
+    <t>using linux and deploy web app to linux</t>
+  </si>
+  <si>
+    <t>Bootstrap &amp; Javascript</t>
+  </si>
+  <si>
+    <t>Final project</t>
+  </si>
+  <si>
+    <t>Clone Instagram with reactjs</t>
+  </si>
+  <si>
+    <t>Clone facebook with angular</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>1W</t>
+  </si>
+  <si>
+    <t>19-Sep ~ 25-Sep</t>
+  </si>
+  <si>
+    <t>During Time</t>
+  </si>
+  <si>
+    <t>26-Sep ~ 2-Oct</t>
+  </si>
+  <si>
+    <t>2W</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>1. Fluid grids and layouts</t>
+  </si>
+  <si>
+    <t>+ uses % rather than px for all layout-related lengths</t>
+  </si>
+  <si>
+    <t>2. flexible/ responsive images</t>
+  </si>
+  <si>
+    <t>3. media queries</t>
+  </si>
+  <si>
+    <t>* layout type</t>
+  </si>
+  <si>
+    <t>1. float layouts</t>
+  </si>
+  <si>
+    <t>2. flexbox</t>
+  </si>
+  <si>
+    <t>3.css grid</t>
+  </si>
+  <si>
+    <t>section 34: building custom grid with float</t>
+  </si>
+  <si>
+    <t>1. tạo row va col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. class row: background , margin </t>
+  </si>
+  <si>
+    <t>3. .col-1-of-2: width:calc, background , float, last child</t>
+  </si>
+  <si>
+    <t>4. tạo mixin clearfix</t>
+  </si>
+  <si>
+    <t>5. tạo col-1-of-3 : with:calc</t>
+  </si>
+  <si>
+    <t>6. tạo col-1-of-4 và col-2-of-3 và col-2-of-4 và col-4-of-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code: </t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>$grid-width:114rem;</t>
+  </si>
+  <si>
+    <t>$gutter-vertical:8rem;</t>
+  </si>
+  <si>
+    <t>$gutter-horizontal:6rem;</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>        </t>
+  </si>
+  <si>
+    <t>.row{</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>max-width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:$grid-width;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>background-color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:#eee;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>margin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:0 auto;</t>
+    </r>
+  </si>
+  <si>
+    <t>    &amp;:not(:last-child){</t>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>margin-bottom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:$gutter-vertical;</t>
+    </r>
+  </si>
+  <si>
+    <t>    @include clearfix;</t>
+  </si>
+  <si>
+    <t>    [class^="col-"]{</t>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>background-color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:orangered;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:left;</t>
+    </r>
+  </si>
+  <si>
+    <t>        &amp;:not(:last-child){</t>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>margin-right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:$gutter-horizontal;</t>
+    </r>
+  </si>
+  <si>
+    <t>    .col-1-of-2{</t>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: calc((100% - #{$gutter-horizontal})/2);  </t>
+    </r>
+  </si>
+  <si>
+    <t>    .col-1-of-3{</t>
+  </si>
+  <si>
+    <r>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:calc( (100% - 2*#{$gutter-horizontal})/3);</t>
+    </r>
+  </si>
+  <si>
+    <t>    .col-2-of-3{</t>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:calc(2*(100% - 2*#{$gutter-horizontal})/3 + #{$gutter-horizontal} );</t>
+    </r>
+  </si>
+  <si>
+    <t>    .col-1-of-4{</t>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:calc( (100% - 3 * #{$gutter-horizontal})/4 );</t>
+    </r>
+  </si>
+  <si>
+    <t>    .col-2-of-4{</t>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:calc(2* (100% - 3 * #{$gutter-horizontal})/4 + #{$gutter-horizontal});</t>
+    </r>
+  </si>
+  <si>
+    <t>    .col-3-of-4{</t>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:calc(3* (100% - 3 * #{$gutter-horizontal})/4 + 2*#{$gutter-horizontal});</t>
+    </r>
+  </si>
+  <si>
+    <t>section 35: Building the about section 1</t>
+  </si>
+  <si>
+    <t>1. Tạo main element</t>
+  </si>
+  <si>
+    <t>2. tạo class section-about trong main</t>
+  </si>
+  <si>
+    <t>3. tạo class heading-secondary trong section-about</t>
+  </si>
+  <si>
+    <t>4. style class section-about trong _home.scss</t>
+  </si>
+  <si>
+    <t>6. class .heading-secondary trong typography.scss</t>
+  </si>
+  <si>
+    <t>8. .heading-secondary: text-transform, font-weight,font-size, display:inline-block, background-image:linear-gradient(),</t>
+  </si>
+  <si>
+    <t>8.1 .heading-secondary: -webkit-background-clip:text; color:transparent;</t>
+  </si>
+  <si>
+    <t>8.2: .heading-secondary:  letter-spacing:.2rem,transition:all .2s;</t>
+  </si>
+  <si>
+    <t>8.3: .heading-secondary:hover: transform:skewY(2deg) skewX(15deg) , text-shadow: .5rem 1rem 2rem rgba();</t>
+  </si>
+  <si>
+    <t>9. tạo class u-center-text trong utilities.scss</t>
+  </si>
+  <si>
+    <t>9.1: u-center-text: text-align:center</t>
+  </si>
+  <si>
+    <t>5. .section-about: background-color, padding, margin-top</t>
+  </si>
+  <si>
+    <t>10. tao row vaf col-1-of-2</t>
+  </si>
+  <si>
+    <t>11. tạo u-margin-bottom-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1 u-margin-bottom-8: </t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>                        Exiting tour for adventurous people</t>
+  </si>
+  <si>
+    <t>                        Text content</t>
+  </si>
+  <si>
+    <t>                        Inage composition</t>
+  </si>
+  <si>
+    <t> &lt;main&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;section class="section-about"&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;div class="u-center-text u-margin-bottom-8"&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;h2 class="heading-secondary"&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;div class="row"&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;div class="col-1-of-2"&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;/section&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/main&gt;</t>
+  </si>
+  <si>
+    <t>_home.scss</t>
+  </si>
+  <si>
+    <t>.section-about{</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>background-color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:$color-grey-light-1;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>padding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:25rem 0;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>margin-top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:-20vh;</t>
+    </r>
+  </si>
+  <si>
+    <t>_typo.scss</t>
+  </si>
+  <si>
+    <t>    </t>
+  </si>
+  <si>
+    <t>.heading-secondary{</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>font-size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:3.5rem;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>text-transform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:uppercase;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>font-weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:700;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>display</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:inline-block;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>background-image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:linear-gradient(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> right, $color-primary-light,$color-primary-dark);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-webkit-background-clip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:text;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:transparent;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>letter-spacing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2rem;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>transition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:all .2s;</t>
+    </r>
+  </si>
+  <si>
+    <t>    &amp;:hover{</t>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>transform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:skewY(2deg) skewX(15deg);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>text-shadow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.5rem 1rem 2rem rgba($color-black,.2);</t>
+    </r>
+  </si>
+  <si>
+    <t>_utilities</t>
+  </si>
+  <si>
+    <t>.u-center-text{</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>text-align</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:center;</t>
+    </r>
+  </si>
+  <si>
+    <t>.u-margin-bottom-8{</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>margin-bottom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 8rem;</t>
     </r>
   </si>
 </sst>
@@ -1499,7 +3084,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1551,8 +3136,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF29303B"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF29303B"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFF8F8F2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFAE81FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFF92672"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF002060"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1565,8 +3197,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1574,11 +3212,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1597,6 +3274,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1900,10 +3598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A155"/>
+  <dimension ref="A1:A156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1973,592 +3671,597 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="7"/>
-    </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A89" s="7"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="7"/>
-    </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A93" s="7"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2570,24 +4273,2191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="53.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A371"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="A357" sqref="A357"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="99.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A105" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="3"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="7"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="7"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="7"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="7"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="7"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="7"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="7"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="18"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="18"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>